--- a/devd/_downloads/9cf0c50576345a1a2bf3946b7ca51d94/Audit-ActiveLivesValEMD.xlsx
+++ b/devd/_downloads/9cf0c50576345a1a2bf3946b7ca51d94/Audit-ActiveLivesValEMD.xlsx
@@ -4288,12 +4288,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4380,12 +4380,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4472,12 +4472,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -4564,12 +4564,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4656,12 +4656,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4932,12 +4932,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -5024,12 +5024,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5116,12 +5116,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5208,12 +5208,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5300,12 +5300,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -5392,12 +5392,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5484,12 +5484,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -5576,12 +5576,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5668,12 +5668,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5760,12 +5760,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5852,12 +5852,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5944,12 +5944,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -6036,12 +6036,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -6220,12 +6220,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -6496,12 +6496,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -6588,12 +6588,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -6772,12 +6772,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -6864,12 +6864,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -6956,12 +6956,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -7048,12 +7048,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -7140,12 +7140,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -7232,12 +7232,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -7324,12 +7324,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -7416,12 +7416,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -7508,12 +7508,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -7600,12 +7600,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -7692,12 +7692,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -7784,12 +7784,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -7876,12 +7876,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -7968,12 +7968,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -8060,12 +8060,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -8244,12 +8244,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -8336,12 +8336,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -8428,12 +8428,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -8520,12 +8520,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -8704,12 +8704,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -8796,12 +8796,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -8888,12 +8888,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -8980,12 +8980,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -9072,12 +9072,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -9164,12 +9164,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -9256,12 +9256,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -9348,12 +9348,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -9440,12 +9440,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -9532,12 +9532,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -9624,12 +9624,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -9716,12 +9716,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -9808,12 +9808,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -9900,12 +9900,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -9992,12 +9992,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -10084,12 +10084,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -10176,12 +10176,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -10268,12 +10268,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -10360,12 +10360,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -10452,12 +10452,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -10544,12 +10544,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -10636,12 +10636,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -10728,12 +10728,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -10912,12 +10912,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -11004,12 +11004,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -11096,12 +11096,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -11188,12 +11188,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -11280,12 +11280,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -11372,12 +11372,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -11464,12 +11464,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -11556,12 +11556,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -11648,12 +11648,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -11740,12 +11740,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -11832,12 +11832,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -11924,12 +11924,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -12016,12 +12016,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -12108,12 +12108,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -12200,12 +12200,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -12292,12 +12292,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -12384,12 +12384,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -12476,12 +12476,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -12568,12 +12568,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -12660,12 +12660,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -12752,12 +12752,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -12844,12 +12844,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -12936,12 +12936,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -13028,12 +13028,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -13120,12 +13120,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -13212,12 +13212,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -13304,12 +13304,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -13396,12 +13396,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -13488,12 +13488,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -13580,12 +13580,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -13672,12 +13672,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -13764,12 +13764,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -13856,12 +13856,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -13948,12 +13948,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -14040,12 +14040,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -14132,12 +14132,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -14224,12 +14224,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -14316,12 +14316,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -14408,12 +14408,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -14500,12 +14500,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -14592,12 +14592,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -14684,12 +14684,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -14776,12 +14776,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -14868,12 +14868,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -14960,12 +14960,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -15052,12 +15052,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -15144,12 +15144,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -15236,12 +15236,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -15328,12 +15328,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -15420,12 +15420,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -15512,12 +15512,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -15604,12 +15604,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -15696,12 +15696,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -15788,12 +15788,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -15880,12 +15880,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -15972,12 +15972,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -16064,12 +16064,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -16156,12 +16156,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -16248,12 +16248,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -16340,12 +16340,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -16432,12 +16432,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -16524,12 +16524,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -16616,12 +16616,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -16708,12 +16708,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -16800,12 +16800,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -16892,12 +16892,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -16984,12 +16984,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -17076,12 +17076,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -17168,12 +17168,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -17260,12 +17260,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -17352,12 +17352,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -17444,12 +17444,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -17536,12 +17536,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -17628,12 +17628,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -17720,12 +17720,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -17812,12 +17812,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -17904,12 +17904,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -17996,12 +17996,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -18088,12 +18088,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -18180,12 +18180,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -18272,12 +18272,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -18364,12 +18364,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -18456,12 +18456,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -18548,12 +18548,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -18640,12 +18640,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -18732,12 +18732,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -18824,12 +18824,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -18916,12 +18916,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -19008,12 +19008,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -19100,12 +19100,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -19192,12 +19192,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -19284,12 +19284,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -19376,12 +19376,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -19468,12 +19468,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -19560,12 +19560,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -19652,12 +19652,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -19744,12 +19744,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -19836,12 +19836,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -19928,12 +19928,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -20020,12 +20020,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -20112,12 +20112,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -20204,12 +20204,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -20296,12 +20296,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -20388,12 +20388,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -20480,12 +20480,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -20572,12 +20572,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -20664,12 +20664,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -20848,12 +20848,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -20940,12 +20940,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -21032,12 +21032,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -21124,12 +21124,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -21216,12 +21216,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -21308,12 +21308,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -21400,12 +21400,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -21492,12 +21492,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -21584,12 +21584,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -21676,12 +21676,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -21768,12 +21768,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -21860,12 +21860,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -21952,12 +21952,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -22044,12 +22044,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -22136,12 +22136,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -22228,12 +22228,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -22320,12 +22320,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -22412,12 +22412,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -22504,12 +22504,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -22596,12 +22596,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -22688,12 +22688,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -22780,12 +22780,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -22872,12 +22872,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -22964,12 +22964,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -23056,12 +23056,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -23148,12 +23148,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -23240,12 +23240,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -23507,12 +23507,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -23547,12 +23547,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -23587,12 +23587,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -23627,12 +23627,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -23667,12 +23667,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -23707,12 +23707,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -23747,12 +23747,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -23787,12 +23787,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -23827,12 +23827,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -24048,12 +24048,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -24140,12 +24140,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -24232,12 +24232,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -24324,12 +24324,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -24416,12 +24416,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -24508,12 +24508,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -24600,12 +24600,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -24692,12 +24692,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -24784,12 +24784,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -24876,12 +24876,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -24968,12 +24968,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -25060,12 +25060,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -25152,12 +25152,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -25244,12 +25244,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -25336,12 +25336,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -25428,12 +25428,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -25520,12 +25520,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -25612,12 +25612,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -25704,12 +25704,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -25796,12 +25796,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -25888,12 +25888,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -25980,12 +25980,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -26072,12 +26072,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -26164,12 +26164,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -26256,12 +26256,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -26348,12 +26348,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -26440,12 +26440,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -26532,12 +26532,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -26624,12 +26624,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -26716,12 +26716,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -26808,12 +26808,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -26900,12 +26900,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -26992,12 +26992,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -27084,12 +27084,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -27176,12 +27176,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -27268,12 +27268,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -27360,12 +27360,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -27452,12 +27452,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -27544,12 +27544,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -27636,12 +27636,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -27728,12 +27728,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -27820,12 +27820,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -27912,12 +27912,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -28004,12 +28004,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -28096,12 +28096,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -28188,12 +28188,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -28280,12 +28280,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -28372,12 +28372,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -28464,12 +28464,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -28556,12 +28556,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -28648,12 +28648,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -28740,12 +28740,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -28832,12 +28832,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -28924,12 +28924,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -29016,12 +29016,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -29108,12 +29108,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -29200,12 +29200,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -29292,12 +29292,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -29384,12 +29384,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -29476,12 +29476,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -29568,12 +29568,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -29660,12 +29660,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -29752,12 +29752,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -29844,12 +29844,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -29936,12 +29936,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -30028,12 +30028,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -30120,12 +30120,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -30212,12 +30212,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -30304,12 +30304,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -30396,12 +30396,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -30488,12 +30488,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -30580,12 +30580,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -30672,12 +30672,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -30764,12 +30764,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -30856,12 +30856,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -30948,12 +30948,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -31040,12 +31040,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -31132,12 +31132,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -31224,12 +31224,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -31316,12 +31316,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -31408,12 +31408,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -31500,12 +31500,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -31592,12 +31592,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -31684,12 +31684,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -31776,12 +31776,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -31868,12 +31868,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -31960,12 +31960,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -32052,12 +32052,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -32144,12 +32144,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -32236,12 +32236,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -32328,12 +32328,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -32420,12 +32420,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -32512,12 +32512,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -32604,12 +32604,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -32696,12 +32696,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -32788,12 +32788,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -32880,12 +32880,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -32972,12 +32972,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -33064,12 +33064,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -33156,12 +33156,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -33248,12 +33248,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -33340,12 +33340,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -33432,12 +33432,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -33524,12 +33524,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -33616,12 +33616,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -33708,12 +33708,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -33800,12 +33800,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -33892,12 +33892,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -33984,12 +33984,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -34076,12 +34076,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -34168,12 +34168,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -34260,12 +34260,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -34352,12 +34352,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -34444,12 +34444,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -34536,12 +34536,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -34628,12 +34628,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -34720,12 +34720,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -34812,12 +34812,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -34904,12 +34904,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -34996,12 +34996,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -35088,12 +35088,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -35180,12 +35180,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -35272,12 +35272,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -35364,12 +35364,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -35456,12 +35456,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -35548,12 +35548,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -35640,12 +35640,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -35732,12 +35732,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -35824,12 +35824,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -35916,12 +35916,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -36008,12 +36008,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -36100,12 +36100,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -36192,12 +36192,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -36284,12 +36284,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -36376,12 +36376,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -36468,12 +36468,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -36560,12 +36560,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -36652,12 +36652,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -36744,12 +36744,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -36836,12 +36836,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -36928,12 +36928,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -37020,12 +37020,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -37112,12 +37112,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -37204,12 +37204,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -37296,12 +37296,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -37388,12 +37388,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -37480,12 +37480,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -37572,12 +37572,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -37664,12 +37664,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -37756,12 +37756,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -37848,12 +37848,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -37940,12 +37940,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -38032,12 +38032,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -38124,12 +38124,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -38216,12 +38216,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -38308,12 +38308,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -38400,12 +38400,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -38492,12 +38492,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -38584,12 +38584,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -38676,12 +38676,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -38768,12 +38768,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -38860,12 +38860,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -38952,12 +38952,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -39044,12 +39044,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -39136,12 +39136,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -39228,12 +39228,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -39320,12 +39320,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -39412,12 +39412,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -39504,12 +39504,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -39596,12 +39596,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -39688,12 +39688,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -39780,12 +39780,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -39872,12 +39872,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -39964,12 +39964,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -40056,12 +40056,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -40148,12 +40148,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -40240,12 +40240,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -40332,12 +40332,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -40424,12 +40424,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -40516,12 +40516,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -40608,12 +40608,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -40700,12 +40700,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -40792,12 +40792,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -40884,12 +40884,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -40976,12 +40976,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -41068,12 +41068,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -41160,12 +41160,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -41252,12 +41252,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -41344,12 +41344,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -41436,12 +41436,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -41528,12 +41528,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -41620,12 +41620,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -41712,12 +41712,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -41804,12 +41804,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -41896,12 +41896,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -41988,12 +41988,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -42080,12 +42080,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -42172,12 +42172,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -42264,12 +42264,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -42356,12 +42356,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -42448,12 +42448,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -42540,12 +42540,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -42632,12 +42632,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -42724,12 +42724,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -42816,12 +42816,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -42908,12 +42908,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -43000,12 +43000,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -43139,12 +43139,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -43179,12 +43179,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -43219,12 +43219,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -43259,12 +43259,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -43299,12 +43299,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -43339,12 +43339,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -43379,12 +43379,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -43419,12 +43419,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -43459,12 +43459,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>baf04df1fb99513870831b99d1430bba859e4560</t>
+          <t>94e209c6c92c4b6bb763d210a5863d925495bade</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-02-08 11:39:52.635504</t>
+          <t>2021-02-08 11:48:59.072389</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
